--- a/CucumberPOMSeries/Credentials.xlsx
+++ b/CucumberPOMSeries/Credentials.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Vidhya@684hh.com</t>
+  </si>
+  <si>
+    <t>xikafo9060@goqoez.com</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,33 +589,41 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
